--- a/___/table/Two thousand and twenty-three/2023-01.xlsx
+++ b/___/table/Two thousand and twenty-three/2023-01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="13">
   <si>
     <t>安排好时间，调整好心态</t>
   </si>
@@ -33,13 +33,19 @@
     <t>计划事项</t>
   </si>
   <si>
-    <t>□</t>
+    <t>☑</t>
   </si>
   <si>
     <t>看英标视频，跟读，跟记</t>
   </si>
   <si>
+    <t>□</t>
+  </si>
+  <si>
     <t>看基础英语视频，看一节课（先导课）</t>
+  </si>
+  <si>
+    <t>看基础英语视频，看一节课（先导课2）</t>
   </si>
   <si>
     <t>列一个技术学习的精准xmind思维导图</t>
@@ -103,11 +109,11 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="ddd"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -216,22 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -239,8 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,9 +252,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,22 +270,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -308,8 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +301,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,9 +330,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,9 +346,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -373,31 +379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +451,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,25 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,13 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,55 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,30 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -614,6 +596,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,16 +642,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,124 +669,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,16 +795,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1680,7 +1686,7 @@
   <dimension ref="B1:BO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="12.8"/>
@@ -2641,7 +2647,7 @@
       </c>
       <c r="D12" s="10">
         <f t="shared" ref="D12:H12" si="20">IFERROR(COUNTIFS(C15:C31,"☑")/COUNTA(C15:C31),"-")</f>
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>2</v>
@@ -3135,127 +3141,131 @@
         <v>6</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="G15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T15" s="13"/>
       <c r="U15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V15" s="13"/>
       <c r="W15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z15" s="13"/>
       <c r="AA15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB15" s="13"/>
       <c r="AC15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD15" s="13"/>
       <c r="AE15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF15" s="13"/>
       <c r="AG15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH15" s="13"/>
       <c r="AI15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL15" s="13"/>
       <c r="AM15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN15" s="13"/>
       <c r="AO15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR15" s="13"/>
       <c r="AS15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT15" s="13"/>
       <c r="AU15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV15" s="13"/>
       <c r="AW15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX15" s="13"/>
       <c r="AY15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ15" s="13"/>
       <c r="BA15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB15" s="13"/>
       <c r="BC15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD15" s="13"/>
       <c r="BE15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF15" s="13"/>
       <c r="BG15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH15" s="13"/>
       <c r="BI15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ15" s="13"/>
       <c r="BK15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BL15" s="13"/>
       <c r="BM15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BN15" s="13"/>
       <c r="BO15" s="11"/>
@@ -3266,10 +3276,14 @@
         <v>5</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
       <c r="I16" s="11"/>
@@ -3335,13 +3349,19 @@
     <row r="17" s="2" customFormat="1" ht="70" customHeight="1" spans="2:67">
       <c r="B17" s="3"/>
       <c r="C17" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f>C17</f>
+        <v>□</v>
+      </c>
+      <c r="F17" s="12" t="str">
+        <f>D17</f>
+        <v>列一个技术学习的精准xmind思维导图</v>
+      </c>
       <c r="G17" s="19"/>
       <c r="H17" s="12"/>
       <c r="I17" s="11"/>
@@ -4520,7 +4540,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{edb315e1-2052-4e2e-bb18-232241f75588}</x14:id>
+          <x14:id>{9d522a64-659a-4d72-bdfc-385111c67a19}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4532,13 +4552,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{faf22d74-55be-4439-9d9e-716330bc6785}</x14:id>
+          <x14:id>{36c6edd1-125a-4c96-b6e5-49f984932db4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO7 BO8 BO9 BO10 C15 M15 O15 Q15 S15 U15 W15 Y15 AA15 AC15 AE15 AG15 AI15 AK15 AM15 AO15 AQ15 AS15 AU15 AW15 AY15 BA15 BC15 BE15 BG15 BI15 BK15 BM15 BO15 M16 O16 Q16 S16 U16 W16 Y16 AA16 AC16 AE16 AG16 AI16 AK16 AM16 AO16 AQ16 AS16 AU16 AW16 AY16 BA16 BC16 BE16 BG16 BI16 BK16 BM16 BO16 M17 O17 Q17 S17 U17 W17 Y17 AA17 AC17 AE17 AG17 AI17 AK17 AM17 AO17 AQ17 AS17 AU17 AW17 AY17 BA17 BC17 BE17 BG17 BI17 BK17 BM17 BO17 M18 O18 Q18 S18 U18 W18 Y18 AA18 AC18 AE18 AG18 AI18 AK18 AM18 AO18 AQ18 AS18 AU18 AW18 AY18 BA18 BC18 BE18 BG18 BI18 BK18 BM18 BO18 I19 M19 O19 Q19 S19 U19 W19 Y19 AA19 AC19 AE19 AG19 AI19 AK19 AM19 AO19 AQ19 AS19 AU19 AW19 AY19 BA19 BC19 BE19 BG19 BI19 BK19 BM19 BO19 I20 M20 O20 Q20 S20 U20 W20 Y20 AA20 AC20 AE20 AG20 AI20 AK20 AM20 AO20 AQ20 AS20 AU20 AW20 AY20 BA20 BC20 BE20 BG20 BI20 BK20 BM20 BO20 C21 E21 I21 K21 M21 O21 Q21 S21 U21 W21 Y21 AA21 AC21 AE21 AG21 AI21 AK21 AM21 AO21 AQ21 AS21 AU21 AW21 AY21 BA21 BC21 BE21 BG21 BI21 BK21 BM21 BO21 C22 E22 G22 I22 K22 M22 O22 Q22 S22 U22 W22 Y22 AA22 AC22 AE22 AG22 AI22 AK22 AM22 AO22 AQ22 AS22 AU22 AW22 AY22 BA22 BC22 BE22 BG22 BI22 BK22 BM22 BO22 E23 G23 I23 K23 M23 O23 Q23 S23 U23 W23 Y23 AA23 AC23 AE23 AG23 AI23 AK23 AM23 AO23 AQ23 AS23 AU23 AW23 AY23 BA23 BC23 BE23 BG23 BI23 BK23 BM23 BO23 E24 G24 I24 K24 M24 O24 Q24 S24 U24 W24 Y24 AA24 AC24 AE24 AG24 AI24 AK24 AM24 AO24 AQ24 AS24 AU24 AW24 AY24 BA24 BC24 BE24 BG24 BI24 BK24 BM24 BO24 C25 E25 G25 I25 K25 M25 O25 Q25 S25 U25 W25 Y25 AA25 AC25 AE25 AG25 AI25 AK25 AM25 AO25 AQ25 AS25 AU25 AW25 AY25 BA25 BC25 BE25 BG25 BI25 BK25 BM25 BO25 C26 E26 G26 I26 K26 M26 O26 Q26 S26 U26 W26 Y26 AA26 AC26 AE26 AG26 AI26 AK26 AM26 AO26 AQ26 AS26 AU26 AW26 AY26 BA26 BC26 BE26 BG26 BI26 BK26 BM26 BO26 C27 E27 G27 I27 K27 M27 O27 Q27 S27 U27 W27 Y27 AA27 AC27 AE27 AG27 AI27 AK27 AM27 AO27 AQ27 AS27 AU27 AW27 AY27 BA27 BC27 BE27 BG27 BI27 BK27 BM27 BO27 C28 E28 G28 I28 K28 M28 O28 Q28 S28 U28 W28 Y28 AA28 AC28 AE28 AG28 AI28 AK28 AM28 AO28 AQ28 AS28 AU28 AW28 AY28 BA28 BC28 BE28 BG28 BI28 BK28 BM28 C29 E29 G29 I29 K29 M29 O29 Q29 S29 U29 W29 Y29 AA29 AC29 AE29 AG29 AI29 AK29 AM29 AO29 AQ29 AS29 AU29 AW29 AY29 BA29 BC29 BE29 BG29 BI29 BK29 BM29 C30 E30 G30 I30 K30 M30 O30 Q30 S30 U30 W30 Y30 AA30 AC30 AE30 AG30 AI30 AK30 AM30 AO30 AQ30 AS30 AU30 AW30 AY30 BA30 BC30 BE30 BG30 BI30 BK30 BM30 C31 E31 G31 I31 K31 M31 O31 Q31 S31 U31 W31 Y31 AA31 AC31 AE31 AG31 AI31 AK31 AM31 AO31 AQ31 AS31 AU31 AW31 AY31 BA31 BC31 BE31 BG31 BI31 BK31 BM31 C16:C17 C18:C20 C23:C24 E15:E18 E19:E20 G15:G16 G17:G19 G20:G21 I15:I18 K15:K16 K17:K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO7 BO8 BO9 BO10 C15 M15 O15 Q15 S15 U15 W15 Y15 AA15 AC15 AE15 AG15 AI15 AK15 AM15 AO15 AQ15 AS15 AU15 AW15 AY15 BA15 BC15 BE15 BG15 BI15 BK15 BM15 BO15 M16 O16 Q16 S16 U16 W16 Y16 AA16 AC16 AE16 AG16 AI16 AK16 AM16 AO16 AQ16 AS16 AU16 AW16 AY16 BA16 BC16 BE16 BG16 BI16 BK16 BM16 BO16 M17 O17 Q17 S17 U17 W17 Y17 AA17 AC17 AE17 AG17 AI17 AK17 AM17 AO17 AQ17 AS17 AU17 AW17 AY17 BA17 BC17 BE17 BG17 BI17 BK17 BM17 BO17 M18 O18 Q18 S18 U18 W18 Y18 AA18 AC18 AE18 AG18 AI18 AK18 AM18 AO18 AQ18 AS18 AU18 AW18 AY18 BA18 BC18 BE18 BG18 BI18 BK18 BM18 BO18 I19 M19 O19 Q19 S19 U19 W19 Y19 AA19 AC19 AE19 AG19 AI19 AK19 AM19 AO19 AQ19 AS19 AU19 AW19 AY19 BA19 BC19 BE19 BG19 BI19 BK19 BM19 BO19 I20 M20 O20 Q20 S20 U20 W20 Y20 AA20 AC20 AE20 AG20 AI20 AK20 AM20 AO20 AQ20 AS20 AU20 AW20 AY20 BA20 BC20 BE20 BG20 BI20 BK20 BM20 BO20 C21 E21 I21 K21 M21 O21 Q21 S21 U21 W21 Y21 AA21 AC21 AE21 AG21 AI21 AK21 AM21 AO21 AQ21 AS21 AU21 AW21 AY21 BA21 BC21 BE21 BG21 BI21 BK21 BM21 BO21 C22 E22 G22 I22 K22 M22 O22 Q22 S22 U22 W22 Y22 AA22 AC22 AE22 AG22 AI22 AK22 AM22 AO22 AQ22 AS22 AU22 AW22 AY22 BA22 BC22 BE22 BG22 BI22 BK22 BM22 BO22 E23 G23 I23 K23 M23 O23 Q23 S23 U23 W23 Y23 AA23 AC23 AE23 AG23 AI23 AK23 AM23 AO23 AQ23 AS23 AU23 AW23 AY23 BA23 BC23 BE23 BG23 BI23 BK23 BM23 BO23 E24 G24 I24 K24 M24 O24 Q24 S24 U24 W24 Y24 AA24 AC24 AE24 AG24 AI24 AK24 AM24 AO24 AQ24 AS24 AU24 AW24 AY24 BA24 BC24 BE24 BG24 BI24 BK24 BM24 BO24 C25 E25 G25 I25 K25 M25 O25 Q25 S25 U25 W25 Y25 AA25 AC25 AE25 AG25 AI25 AK25 AM25 AO25 AQ25 AS25 AU25 AW25 AY25 BA25 BC25 BE25 BG25 BI25 BK25 BM25 BO25 C26 E26 G26 I26 K26 M26 O26 Q26 S26 U26 W26 Y26 AA26 AC26 AE26 AG26 AI26 AK26 AM26 AO26 AQ26 AS26 AU26 AW26 AY26 BA26 BC26 BE26 BG26 BI26 BK26 BM26 BO26 C27 E27 G27 I27 K27 M27 O27 Q27 S27 U27 W27 Y27 AA27 AC27 AE27 AG27 AI27 AK27 AM27 AO27 AQ27 AS27 AU27 AW27 AY27 BA27 BC27 BE27 BG27 BI27 BK27 BM27 BO27 C28 E28 G28 I28 K28 M28 O28 Q28 S28 U28 W28 Y28 AA28 AC28 AE28 AG28 AI28 AK28 AM28 AO28 AQ28 AS28 AU28 AW28 AY28 BA28 BC28 BE28 BG28 BI28 BK28 BM28 C29 E29 G29 I29 K29 M29 O29 Q29 S29 U29 W29 Y29 AA29 AC29 AE29 AG29 AI29 AK29 AM29 AO29 AQ29 AS29 AU29 AW29 AY29 BA29 BC29 BE29 BG29 BI29 BK29 BM29 C30 E30 G30 I30 K30 M30 O30 Q30 S30 U30 W30 Y30 AA30 AC30 AE30 AG30 AI30 AK30 AM30 AO30 AQ30 AS30 AU30 AW30 AY30 BA30 BC30 BE30 BG30 BI30 BK30 BM30 C31 E31 G31 I31 K31 M31 O31 Q31 S31 U31 W31 Y31 AA31 AC31 AE31 AG31 AI31 AK31 AM31 AO31 AQ31 AS31 AU31 AW31 AY31 BA31 BC31 BE31 BG31 BI31 BK31 BM31 C16:C17 C18:C20 C23:C24 E15:E16 E17:E18 E19:E20 G15:G16 G17:G19 G20:G21 I15:I18 K15:K16 K17:K20">
       <formula1>"□,☑"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4549,7 +4569,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{edb315e1-2052-4e2e-bb18-232241f75588}">
+          <x14:cfRule type="dataBar" id="{9d522a64-659a-4d72-bdfc-385111c67a19}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4560,7 +4580,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{faf22d74-55be-4439-9d9e-716330bc6785}">
+          <x14:cfRule type="dataBar" id="{36c6edd1-125a-4c96-b6e5-49f984932db4}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4737,7 +4757,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -6034,131 +6054,131 @@
     <row r="15" s="2" customFormat="1" ht="54" customHeight="1" spans="2:67">
       <c r="B15" s="3"/>
       <c r="C15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T15" s="13"/>
       <c r="U15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V15" s="13"/>
       <c r="W15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z15" s="13"/>
       <c r="AA15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB15" s="13"/>
       <c r="AC15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD15" s="13"/>
       <c r="AE15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF15" s="13"/>
       <c r="AG15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH15" s="13"/>
       <c r="AI15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL15" s="13"/>
       <c r="AM15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN15" s="13"/>
       <c r="AO15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR15" s="13"/>
       <c r="AS15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT15" s="13"/>
       <c r="AU15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV15" s="13"/>
       <c r="AW15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX15" s="13"/>
       <c r="AY15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ15" s="13"/>
       <c r="BA15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB15" s="13"/>
       <c r="BC15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD15" s="13"/>
       <c r="BE15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF15" s="13"/>
       <c r="BG15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH15" s="13"/>
       <c r="BI15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ15" s="13"/>
       <c r="BK15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BL15" s="13"/>
       <c r="BM15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BN15" s="13"/>
       <c r="BO15" s="11"/>
@@ -7415,7 +7435,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f6fea27-1e08-4635-aed8-37d5386d4ee0}</x14:id>
+          <x14:id>{7d889a37-2810-4ad9-839f-db95f7a1c391}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7427,7 +7447,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{50a392d6-5f21-4b0e-b92b-885a41794292}</x14:id>
+          <x14:id>{d35ec0c5-0756-41f1-95c4-835bfe2b0bd7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7444,7 +7464,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f6fea27-1e08-4635-aed8-37d5386d4ee0}">
+          <x14:cfRule type="dataBar" id="{7d889a37-2810-4ad9-839f-db95f7a1c391}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7455,7 +7475,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{50a392d6-5f21-4b0e-b92b-885a41794292}">
+          <x14:cfRule type="dataBar" id="{d35ec0c5-0756-41f1-95c4-835bfe2b0bd7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7487,7 +7507,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
